--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FF9BB9-0BF8-FD41-9C10-CC8F950B4289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F09CCBF5ABA0039B81A62F9F910EFCB195BCBF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{EFEB3479-AB2B-104F-8A0C-359500018FD5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +30,7 @@
     <author>ips.nt0001@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{D355867D-2689-3D45-B099-E194D6CF7B55}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +38,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ips.nt0001@gmail.com:</t>
         </r>
@@ -58,7 +47,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -68,13 +57,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Iniciado 17/04</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{33253A7B-C9D4-3849-AA77-A4FCABDD2BC9}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +71,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ips.nt0001@gmail.com:</t>
         </r>
@@ -91,7 +80,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -101,7 +90,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Até dia 21/05</t>
         </r>
@@ -112,7 +101,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>MONITORAMENTO  CARGA PORTAL  OBM  A PARTIR DO HORUS</t>
+  </si>
   <si>
     <t>HORUS</t>
   </si>
@@ -123,25 +115,37 @@
     <t>VTM incluídos PORTAL</t>
   </si>
   <si>
+    <t>VMP incluir Portal</t>
+  </si>
+  <si>
+    <t>VMP incluídos no Portal</t>
+  </si>
+  <si>
+    <t>% VMPs incluídos no portal</t>
+  </si>
+  <si>
+    <t>VMPP incluídos Portal</t>
+  </si>
+  <si>
+    <t>% VMPPs incluídos no portal</t>
+  </si>
+  <si>
     <t>AMP Incluir</t>
   </si>
   <si>
     <t>AMP incluídos Portal</t>
   </si>
   <si>
+    <t>% AMPs incluídos no portal</t>
+  </si>
+  <si>
     <t>AMPP incluir</t>
   </si>
   <si>
-    <t>% VMPs incluídos no portal</t>
-  </si>
-  <si>
-    <t>VMPP incluídos Portal</t>
-  </si>
-  <si>
-    <t>% VMPPs incluídos no portal</t>
-  </si>
-  <si>
-    <t>% AMPs incluídos no portal</t>
+    <t>AMPP incluidos no portal</t>
+  </si>
+  <si>
+    <t>% AMPP incluidos no portal</t>
   </si>
   <si>
     <t xml:space="preserve">MARCO 23 </t>
@@ -165,35 +169,26 @@
     <t>SETEMBRO 23</t>
   </si>
   <si>
+    <t>OUTUBRO 23</t>
+  </si>
+  <si>
+    <t>NOVMEBRO 23</t>
+  </si>
+  <si>
+    <t>DEZEMBRO 23</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>OUTUBRO 23</t>
-  </si>
-  <si>
-    <t>NOVMEBRO 23</t>
-  </si>
-  <si>
-    <t>DEZEMBRO 23</t>
-  </si>
-  <si>
     <t>TOTAIS</t>
-  </si>
-  <si>
-    <t>MONITORAMENTO  CARGA PORTAL  OBM  A PARTIR DO HORUS</t>
-  </si>
-  <si>
-    <t>VMP incluir Portal</t>
-  </si>
-  <si>
-    <t>VMP incluídos no Portal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,13 +201,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -298,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,7 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -334,6 +328,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,74 +650,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24705CB5-DBEF-7B49-8BEE-46E838B9C845}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="23.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="46.9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>4799</v>
@@ -731,20 +737,26 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="15">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="14">
         <v>292</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="18">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="17">
         <v>292</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>4799</v>
@@ -758,20 +770,26 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="14">
         <v>650</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="18">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17">
         <v>596</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>4799</v>
@@ -785,20 +803,26 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="14">
         <v>1702</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="18">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="17">
         <v>4084</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>4799</v>
@@ -812,20 +836,26 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14">
         <v>612</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="18">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="17">
         <v>1729</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>4799</v>
@@ -835,24 +865,40 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15">
+        <v>213</v>
+      </c>
+      <c r="F8" s="5">
+        <v>471</v>
+      </c>
+      <c r="G8" s="18">
+        <f>F8/F14</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1287</v>
+      </c>
+      <c r="I8" s="11">
+        <f>H8/H14</f>
+        <v>0.49633629001156959</v>
+      </c>
+      <c r="J8" s="14">
         <v>850</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="18">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="17">
         <v>1223</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>4799</v>
@@ -864,107 +910,195 @@
         <v>277</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F9" s="5">
-        <v>261</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>2545</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
+        <v>177</v>
+      </c>
+      <c r="G9" s="18">
+        <f>F9/F14</f>
+        <v>0.18789808917197454</v>
+      </c>
+      <c r="H9" s="10">
+        <v>932</v>
+      </c>
+      <c r="I9" s="11">
+        <f>H9/H14</f>
+        <v>0.35942923254917086</v>
+      </c>
+      <c r="J9" s="14">
         <v>1966</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>1779</v>
       </c>
-      <c r="L9" s="16">
-        <f>1779/6072</f>
+      <c r="L9" s="15">
+        <f>K9/K14</f>
         <v>0.29298418972332013</v>
       </c>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="5">
+        <v>209</v>
+      </c>
+      <c r="F10" s="5">
+        <v>209</v>
+      </c>
+      <c r="G10" s="18">
+        <f>F10/F14</f>
+        <v>0.2218683651804671</v>
+      </c>
+      <c r="H10" s="10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11">
+        <f>H10/H14</f>
+        <v>4.6278441959120712E-3</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="15">
+        <f>K10/J14</f>
+        <v>0.24703557312252963</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5">
+        <v>66</v>
+      </c>
+      <c r="G11" s="18">
+        <f>F11/F14</f>
+        <v>7.0063694267515922E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11">
+        <f>H11/H14</f>
+        <v>6.0161974546856921E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2793</v>
+      </c>
+      <c r="L11" s="15">
+        <f>K11/J14</f>
+        <v>0.45998023715415021</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1800</v>
+      </c>
+      <c r="N11" s="17">
+        <v>2489</v>
+      </c>
+      <c r="O11" s="21">
+        <f>N11/M14</f>
+        <v>0.23774954627949182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="E12" s="5">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
+        <v>19</v>
+      </c>
+      <c r="G12" s="18">
+        <f>F12/F14</f>
+        <v>2.0169851380042462E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>206</v>
+      </c>
+      <c r="I12" s="11">
+        <f>H12/H14</f>
+        <v>7.9444658696490547E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="17">
+        <v>745</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2694</v>
+      </c>
+      <c r="O12" s="21">
+        <f>N12/M14</f>
+        <v>0.2573311682109084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>4799</v>
@@ -977,34 +1111,51 @@
         <v>277</v>
       </c>
       <c r="E14" s="5">
-        <v>261</v>
+        <f>SUM(E4:E13)</f>
+        <v>942</v>
       </c>
       <c r="F14" s="5">
-        <v>261</v>
-      </c>
-      <c r="G14" s="7">
+        <f>SUM(F8:F13)</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(G8:G13)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H8:H13)</f>
+        <v>2593</v>
+      </c>
+      <c r="I14" s="11">
+        <f>SUM(I8:I13)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="11">
-        <v>2545</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="J14" s="14">
+        <f>SUM(J4:J13)</f>
+        <v>6072</v>
+      </c>
+      <c r="K14" s="14">
+        <f>SUM(K9:K13)</f>
+        <v>6072</v>
+      </c>
+      <c r="L14" s="15">
+        <f>K14/J14</f>
         <v>1</v>
       </c>
-      <c r="J14" s="15">
-        <v>6072</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1779</v>
-      </c>
-      <c r="L14" s="16">
-        <f>1779/6072</f>
-        <v>0.29298418972332013</v>
-      </c>
-      <c r="M14" s="18">
-        <f>SUM(M4:M13)</f>
-        <v>7924</v>
-      </c>
+      <c r="M14" s="17">
+        <v>10469</v>
+      </c>
+      <c r="N14" s="17">
+        <f>SUM(N11:N13)</f>
+        <v>5183</v>
+      </c>
+      <c r="O14" s="21">
+        <f>N14/M14</f>
+        <v>0.49508071449040025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="L16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F09CCBF5ABA0039B81A62F9F910EFCB195BCBF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E9F90-12D6-484E-ACEC-01B283B1DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,8 +112,84 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ips.nt0001@gmail.com</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{E4315437-9266-7E41-9930-DC69D0C90E4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>ips.nt0001@gmail.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iniciado 17/04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{610943E5-2385-F644-8E21-6205AB729595}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>ips.nt0001@gmail.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Até dia 21/05</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>MONITORAMENTO  CARGA PORTAL  OBM  A PARTIR DO HORUS</t>
   </si>
@@ -182,13 +270,16 @@
   </si>
   <si>
     <t>TOTAIS</t>
+  </si>
+  <si>
+    <t>VMPP incluir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,11 +386,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +460,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,13 +788,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.45">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -676,7 +811,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="46.9">
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -721,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -787,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -853,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -896,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -946,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1170,7 @@
         <v>0.23774954627949182</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1210,7 @@
         <v>0.2573311682109084</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1231,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1289,7 @@
         <v>0.49508071449040025</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L16" s="19"/>
     </row>
   </sheetData>
@@ -1164,4 +1299,490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DBF540-5775-064A-A058-3E0E22C63624}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="14">
+        <v>292</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17">
+        <v>292</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="14">
+        <v>650</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="17">
+        <v>596</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="14">
+        <v>1702</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17">
+        <v>4084</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14">
+        <v>612</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="17">
+        <v>1729</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5">
+        <v>213</v>
+      </c>
+      <c r="E8" s="5">
+        <v>471</v>
+      </c>
+      <c r="F8" s="25">
+        <f>E8/E14</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="28">
+        <f>H8*2</f>
+        <v>2574</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1287</v>
+      </c>
+      <c r="I8" s="11">
+        <f>H8/H14</f>
+        <v>0.49633629001156959</v>
+      </c>
+      <c r="J8" s="14">
+        <v>850</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="17">
+        <v>1223</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C9" s="3">
+        <v>277</v>
+      </c>
+      <c r="D9" s="5">
+        <v>177</v>
+      </c>
+      <c r="E9" s="5">
+        <v>177</v>
+      </c>
+      <c r="F9" s="25">
+        <f>E9/E14</f>
+        <v>0.18789808917197454</v>
+      </c>
+      <c r="G9" s="28">
+        <v>932</v>
+      </c>
+      <c r="H9" s="26">
+        <v>932</v>
+      </c>
+      <c r="I9" s="11">
+        <f>H9/H14</f>
+        <v>0.35942923254917086</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1966</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1779</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5">
+        <v>209</v>
+      </c>
+      <c r="E10" s="5">
+        <v>209</v>
+      </c>
+      <c r="F10" s="25">
+        <f>E10/E14</f>
+        <v>0.2218683651804671</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11">
+        <f>H10/H14</f>
+        <v>4.6278441959120712E-3</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5">
+        <v>66</v>
+      </c>
+      <c r="F11" s="25">
+        <f>E11/E14</f>
+        <v>7.0063694267515922E-2</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11">
+        <f>H11/H14</f>
+        <v>6.0161974546856921E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2793</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1800</v>
+      </c>
+      <c r="M11" s="17">
+        <v>2489</v>
+      </c>
+      <c r="N11" s="21">
+        <f>M11/L14</f>
+        <v>0.23774954627949182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E12/E14</f>
+        <v>2.0169851380042462E-2</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26">
+        <v>206</v>
+      </c>
+      <c r="I12" s="11">
+        <f>H12/H14</f>
+        <v>7.9444658696490547E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17">
+        <v>745</v>
+      </c>
+      <c r="M12" s="17">
+        <v>2694</v>
+      </c>
+      <c r="N12" s="21">
+        <f>M12/L14</f>
+        <v>0.2573311682109084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C14" s="3">
+        <v>277</v>
+      </c>
+      <c r="D14" s="5">
+        <f>SUM(D4:D13)</f>
+        <v>942</v>
+      </c>
+      <c r="E14" s="5">
+        <f>SUM(E8:E13)</f>
+        <v>942</v>
+      </c>
+      <c r="F14" s="25">
+        <f>SUM(F8:F13)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="G14" s="30">
+        <f>SUM(G8:G13)</f>
+        <v>3506</v>
+      </c>
+      <c r="H14" s="26">
+        <f>SUM(H8:H13)</f>
+        <v>2593</v>
+      </c>
+      <c r="I14" s="11">
+        <f>SUM(I8:I13)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <f>SUM(J4:J13)</f>
+        <v>6072</v>
+      </c>
+      <c r="K14" s="14">
+        <f>SUM(K9:K13)</f>
+        <v>6072</v>
+      </c>
+      <c r="L14" s="17">
+        <v>10469</v>
+      </c>
+      <c r="M14" s="17">
+        <f>SUM(M11:M13)</f>
+        <v>5183</v>
+      </c>
+      <c r="N14" s="21">
+        <f>M14/L14</f>
+        <v>0.49508071449040025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G15" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaPortalOBM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E9F90-12D6-484E-ACEC-01B283B1DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8959A35-00F6-E54A-9508-23D8E2AE4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1100" yWindow="3560" windowWidth="26320" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>MONITORAMENTO  CARGA PORTAL  OBM  A PARTIR DO HORUS</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>VMPP incluir</t>
+  </si>
+  <si>
+    <t>AMPP incluidos no portal HSL</t>
+  </si>
+  <si>
+    <t>AMPP incluidos no portal MS</t>
+  </si>
+  <si>
+    <t>% AMPP incluidos no portal HSL</t>
   </si>
 </sst>
 </file>
@@ -457,9 +466,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,6 +478,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,21 +804,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1303,34 +1312,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DBF540-5775-064A-A058-3E0E22C63624}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N15"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1344,10 +1354,10 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1366,13 +1376,16 @@
         <v>12</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1384,8 +1397,8 @@
         <v>25</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="14">
@@ -1402,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,8 +1427,8 @@
         <v>93</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="14">
@@ -1432,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1444,8 +1457,8 @@
         <v>79</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="14">
@@ -1462,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1474,8 +1487,8 @@
         <v>61</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="14">
@@ -1492,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,15 +1519,15 @@
       <c r="E8" s="5">
         <v>471</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>E8/E14</f>
         <v>0.5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <f>H8*2</f>
         <v>2574</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>1287</v>
       </c>
       <c r="I8" s="11">
@@ -1535,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1551,14 +1564,14 @@
       <c r="E9" s="5">
         <v>177</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f>E9/E14</f>
         <v>0.18789808917197454</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>932</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>932</v>
       </c>
       <c r="I9" s="11">
@@ -1581,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1593,12 +1606,12 @@
       <c r="E10" s="5">
         <v>209</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <f>E10/E14</f>
         <v>0.2218683651804671</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26">
+      <c r="G10" s="27"/>
+      <c r="H10" s="25">
         <v>12</v>
       </c>
       <c r="I10" s="11">
@@ -1621,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1633,12 +1646,12 @@
       <c r="E11" s="5">
         <v>66</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f>E11/E14</f>
         <v>7.0063694267515922E-2</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26">
+      <c r="G11" s="27"/>
+      <c r="H11" s="25">
         <v>156</v>
       </c>
       <c r="I11" s="11">
@@ -1662,7 +1675,7 @@
         <v>0.23774954627949182</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1674,12 +1687,12 @@
       <c r="E12" s="5">
         <v>19</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f>E12/E14</f>
         <v>2.0169851380042462E-2</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26">
+      <c r="G12" s="27"/>
+      <c r="H12" s="25">
         <v>206</v>
       </c>
       <c r="I12" s="11">
@@ -1701,7 +1714,7 @@
         <v>0.2573311682109084</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1711,9 +1724,9 @@
         <v>25</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="10"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1721,7 +1734,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1739,15 +1752,15 @@
         <f>SUM(E8:E13)</f>
         <v>942</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>SUM(F8:F13)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f>SUM(G8:G13)</f>
         <v>3506</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <f>SUM(H8:H13)</f>
         <v>2593</v>
       </c>
@@ -1775,8 +1788,8 @@
         <v>0.49508071449040025</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G15" s="27"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
